--- a/VersionRecords/Version TP/版本Bug和特性计划及评审表v5.x.x.xlsx
+++ b/VersionRecords/Version TP/版本Bug和特性计划及评审表v5.x.x.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version TP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813"/>
+    <workbookView xWindow="29280" yWindow="3520" windowWidth="28700" windowHeight="14500" tabRatio="813" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.9.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -30,11 +25,16 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="130">
   <si>
     <t>No</t>
   </si>
@@ -247,13 +247,379 @@
   <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentertp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>sysconfig.roomlist_cachetime=1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源列表缓存时间设置为1s</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentertp</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>memcached.memClientSearch1.tp.host=${filter.memcached.memClientSearch1.tp.host}
+memcached.memClientSearch1.tp.port=${filter.memcached.memClientSearch1.tp.port}
+memcached.memClientSearch1.tp.weight=${filter.memcached.memClientSearch1.tp.weight}
+memcached.memClientSearch2.tp.host=${filter.memcached.memClientSearch2.tp.host}
+memcached.memClientSearch2.tp.port=${filter.memcached.memClientSearch2.tp.port}
+memcached.memClientSearch2.tp.weight=${filter.memcached.memClientSearch2.tp.weight}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>找房模块为TP设置独立的缓存服务器</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+  </si>
+  <si>
+    <t>rentertp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.ELASTIC_SEARCHROOM_ROOM_TYPE=mogoroom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎切换新的数据结构</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentertp</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>memcached.memClientSearch1.tp.host=${filter.memcached.memClientSearch1.tp.host}
+memcached.memClientSearch1.tp.port=${filter.memcached.memClientSearch1.tp.port}
+memcached.memClientSearch1.tp.weight=${filter.memcached.memClientSearch1.tp.weight}
+memcached.memClientSearch2.tp.host=${filter.memcached.memClientSearch2.tp.host}
+memcached.memClientSearch2.tp.port=${filter.memcached.memClientSearch2.tp.port}
+memcached.memClientSearch2.tp.weight=${filter.memcached.memClientSearch2.tp.weight}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>找房模块为TP设置独立的缓存服务器</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentertp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.ELASTIC_SEARCHROOM_ROOM_TYPE=mogoroom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎切换新的数据结构</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>TP项目B端改造</t>
+    <rPh sb="2" eb="3">
+      <t>xiang'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gai'zao</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>partner、partnerpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>有ddl</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅、崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>c'b</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+  </si>
+  <si>
+    <t>李敖、施超</t>
+    <rPh sb="0" eb="1">
+      <t>li'ao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'c</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP项目B端改造消息</t>
+    <rPh sb="2" eb="3">
+      <t>xiang'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gai'z</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>lts</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新定时器</t>
+    <rPh sb="0" eb="1">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ding'shi'qi</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>JB组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>租客预约看房前1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提醒</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.AdviseRenterReservationTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>AdviseRenterReservationTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>com.mogoroom.tasktracker.task.AdviseRenterReservationTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>每隔5分钟执行一次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -739,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,9 +1376,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1091,9 +1454,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -1105,7 +1494,8 @@
     <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1129,7 +1519,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1477,37 +1867,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="32" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="33" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="32" customWidth="1"/>
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="33" customWidth="1"/>
     <col min="18" max="18" width="12" style="34" customWidth="1"/>
     <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="34" customWidth="1"/>
+    <col min="21" max="21" width="41.83203125" style="33" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="28">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1574,21 +1964,47 @@
     </row>
     <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="B2" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="106">
+        <v>42768</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="106">
+        <v>42768</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="O2" s="47"/>
-      <c r="P2" s="107"/>
+      <c r="P2" s="106"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
       <c r="S2" s="44"/>
@@ -1596,27 +2012,53 @@
       <c r="U2" s="50"/>
       <c r="V2" s="51"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16">
       <c r="A3" s="80"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="81"/>
+      <c r="B3" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="106">
+        <v>42768</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="106">
+        <v>42768</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="O3" s="44"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="47"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
       <c r="U3" s="52"/>
       <c r="V3" s="51"/>
     </row>
@@ -1634,7 +2076,7 @@
       <c r="K4" s="38"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="92"/>
+      <c r="N4" s="91"/>
       <c r="O4" s="44"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="47"/>
@@ -1643,7 +2085,7 @@
       <c r="T4" s="44"/>
       <c r="U4" s="45"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:22" ht="15">
       <c r="A5" s="80"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1657,7 +2099,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
-      <c r="N5" s="92"/>
+      <c r="N5" s="91"/>
       <c r="O5" s="44"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="47"/>
@@ -1680,16 +2122,16 @@
       <c r="K6" s="38"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
-      <c r="N6" s="92"/>
+      <c r="N6" s="91"/>
       <c r="O6" s="44"/>
       <c r="P6" s="39"/>
-      <c r="Q6" s="94"/>
+      <c r="Q6" s="93"/>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="99" customFormat="1" ht="21.75" customHeight="1">
+    <row r="7" spans="1:22" s="98" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="80"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1698,20 +2140,20 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="39"/>
-      <c r="I7" s="95"/>
+      <c r="I7" s="94"/>
       <c r="J7" s="39"/>
       <c r="K7" s="36"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
-      <c r="N7" s="92"/>
+      <c r="N7" s="91"/>
       <c r="O7" s="44"/>
       <c r="P7" s="39"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="98"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="97"/>
     </row>
     <row r="8" spans="1:22" ht="21.75" customHeight="1">
       <c r="A8" s="80"/>
@@ -1725,18 +2167,18 @@
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="100"/>
+      <c r="L8" s="99"/>
       <c r="M8" s="47"/>
-      <c r="N8" s="92"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="44"/>
       <c r="P8" s="39"/>
-      <c r="Q8" s="94"/>
+      <c r="Q8" s="93"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="80"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1750,10 +2192,10 @@
       <c r="K9" s="38"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
-      <c r="N9" s="92"/>
+      <c r="N9" s="91"/>
       <c r="O9" s="44"/>
       <c r="P9" s="39"/>
-      <c r="Q9" s="94"/>
+      <c r="Q9" s="93"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
@@ -1761,53 +2203,53 @@
     </row>
     <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="80"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="82"/>
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
-      <c r="H10" s="103"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="82"/>
-      <c r="J10" s="103"/>
+      <c r="J10" s="102"/>
       <c r="K10" s="82"/>
       <c r="L10" s="85"/>
       <c r="M10" s="82"/>
       <c r="N10" s="82"/>
       <c r="O10" s="85"/>
-      <c r="P10" s="103"/>
+      <c r="P10" s="102"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="104"/>
+      <c r="U10" s="103"/>
       <c r="V10" s="51"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A11" s="80"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="82"/>
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
-      <c r="H11" s="103"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="82"/>
-      <c r="J11" s="103"/>
+      <c r="J11" s="102"/>
       <c r="K11" s="82"/>
       <c r="L11" s="85"/>
       <c r="M11" s="82"/>
       <c r="N11" s="82"/>
       <c r="O11" s="85"/>
-      <c r="P11" s="103"/>
+      <c r="P11" s="102"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="105"/>
+      <c r="U11" s="104"/>
       <c r="V11" s="51"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
+    <row r="12" spans="1:22" ht="15">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -1830,7 +2272,7 @@
       <c r="T12" s="44"/>
       <c r="U12" s="45"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="15">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -1853,7 +2295,7 @@
       <c r="T13" s="44"/>
       <c r="U13" s="45"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
@@ -1876,7 +2318,7 @@
       <c r="T14" s="44"/>
       <c r="U14" s="45"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
@@ -1900,7 +2342,7 @@
       <c r="U15" s="78"/>
       <c r="V15" s="51"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
@@ -1924,7 +2366,7 @@
       <c r="U16" s="78"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -1948,7 +2390,7 @@
       <c r="U17" s="78"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -1972,7 +2414,7 @@
       <c r="U18" s="78"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="19" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -1996,7 +2438,7 @@
       <c r="U19" s="78"/>
       <c r="V19" s="51"/>
     </row>
-    <row r="20" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="20" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A20" s="73"/>
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
@@ -2020,7 +2462,7 @@
       <c r="U20" s="78"/>
       <c r="V20" s="51"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5">
+    <row r="21" spans="1:22" ht="15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2043,7 +2485,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="52"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5">
+    <row r="22" spans="1:22" ht="15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2066,7 +2508,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="52"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5">
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2089,7 +2531,7 @@
       <c r="T23" s="54"/>
       <c r="U23" s="55"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5">
+    <row r="24" spans="1:22" ht="15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2112,7 +2554,7 @@
       <c r="T24" s="56"/>
       <c r="U24" s="55"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5">
+    <row r="25" spans="1:22" ht="15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2135,7 +2577,7 @@
       <c r="T25" s="57"/>
       <c r="U25" s="55"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5">
+    <row r="26" spans="1:22" ht="15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2158,7 +2600,7 @@
       <c r="T26" s="56"/>
       <c r="U26" s="55"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5">
+    <row r="27" spans="1:22" ht="15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2181,7 +2623,7 @@
       <c r="T27" s="56"/>
       <c r="U27" s="55"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5">
+    <row r="28" spans="1:22" ht="15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2204,7 +2646,7 @@
       <c r="T28" s="53"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5">
+    <row r="29" spans="1:22" ht="15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2227,7 +2669,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="52"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5">
+    <row r="30" spans="1:22" ht="15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2250,7 +2692,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="52"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5">
+    <row r="31" spans="1:22" ht="15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2273,7 +2715,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="52"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5">
+    <row r="32" spans="1:22" ht="15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2296,7 +2738,7 @@
       <c r="T32" s="56"/>
       <c r="U32" s="55"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2319,7 +2761,7 @@
       <c r="T33" s="44"/>
       <c r="U33" s="50"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2342,7 +2784,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="52"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2365,7 +2807,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="52"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2388,7 +2830,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="52"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2411,7 +2853,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="52"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2434,7 +2876,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="52"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2457,7 +2899,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="52"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2480,7 +2922,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="52"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2503,7 +2945,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="52"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2526,7 +2968,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="52"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2549,7 +2991,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="52"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2572,7 +3014,7 @@
       <c r="T44" s="53"/>
       <c r="U44" s="52"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2595,7 +3037,7 @@
       <c r="T45" s="53"/>
       <c r="U45" s="52"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2618,7 +3060,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2641,7 +3083,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2664,7 +3106,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2687,7 +3129,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2710,7 +3152,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2733,7 +3175,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2756,7 +3198,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -2779,7 +3221,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2802,7 +3244,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2825,7 +3267,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2848,7 +3290,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2871,7 +3313,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -2894,7 +3336,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -2917,7 +3359,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -2940,7 +3382,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -2963,7 +3405,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -2986,7 +3428,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3009,7 +3451,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3032,7 +3474,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3055,7 +3497,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3078,7 +3520,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3101,7 +3543,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3124,7 +3566,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3147,7 +3589,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="15">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3170,7 +3612,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="15">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3193,7 +3635,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="15">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3216,7 +3658,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="15">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3239,7 +3681,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5">
+    <row r="74" spans="1:21" ht="15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -5348,7 +5790,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5369,6 +5811,11 @@
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5376,28 +5823,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1">
@@ -5457,23 +5904,55 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="71"/>
+      <c r="A2" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="122" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="123" t="s">
+        <v>129</v>
+      </c>
       <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
@@ -5519,6 +5998,11 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5530,34 +6014,34 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:11" ht="15">
+      <c r="A1" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -5592,9 +6076,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5605,9 +6089,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5618,9 +6102,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5631,9 +6115,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5644,9 +6128,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5657,9 +6141,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5670,9 +6154,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5683,9 +6167,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+    <row r="10" spans="1:11">
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5696,7 +6180,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5719,6 +6203,11 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5727,57 +6216,57 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B4" sqref="B4:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -5818,52 +6307,112 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="D4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="195">
       <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="D5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5878,7 +6427,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5893,7 +6442,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5908,7 +6457,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5923,7 +6472,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5938,7 +6487,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5953,7 +6502,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5968,7 +6517,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5983,7 +6532,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5998,7 +6547,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6033,6 +6582,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6041,57 +6595,57 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B4" sqref="B4:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6132,52 +6686,112 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="90" customFormat="1" ht="15">
       <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="D4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="90" customFormat="1" ht="195">
       <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
+      <c r="B5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="M5" s="89"/>
     </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="90" customFormat="1" ht="30">
       <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" s="89"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6192,7 +6806,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6207,7 +6821,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6222,7 +6836,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6237,7 +6851,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6252,7 +6866,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6267,7 +6881,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6282,7 +6896,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6297,7 +6911,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6312,7 +6926,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6336,7 +6950,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 WLU4:WLU6 WBY4:WBY6 VSC4:VSC6 VIG4:VIG6 UYK4:UYK6 UOO4:UOO6 UES4:UES6 TUW4:TUW6 TLA4:TLA6 TBE4:TBE6 SRI4:SRI6 SHM4:SHM6 RXQ4:RXQ6 RNU4:RNU6 RDY4:RDY6 QUC4:QUC6 QKG4:QKG6 QAK4:QAK6 PQO4:PQO6 PGS4:PGS6 OWW4:OWW6 ONA4:ONA6 ODE4:ODE6 NTI4:NTI6 NJM4:NJM6 MZQ4:MZQ6 MPU4:MPU6 MFY4:MFY6 LWC4:LWC6 LMG4:LMG6 LCK4:LCK6 KSO4:KSO6 KIS4:KIS6 JYW4:JYW6 JPA4:JPA6 JFE4:JFE6 IVI4:IVI6 ILM4:ILM6 IBQ4:IBQ6 HRU4:HRU6 HHY4:HHY6 GYC4:GYC6 GOG4:GOG6 GEK4:GEK6 FUO4:FUO6 FKS4:FKS6 FAW4:FAW6 ERA4:ERA6 EHE4:EHE6 DXI4:DXI6 DNM4:DNM6 DDQ4:DDQ6 CTU4:CTU6 CJY4:CJY6 CAC4:CAC6 BQG4:BQG6 BGK4:BGK6 AWO4:AWO6 AMS4:AMS6 ACW4:ACW6 TA4:TA6 JE4:JE6 WVQ4:WVQ6 I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 WLU4:WLU6 WBY4:WBY6 VSC4:VSC6 VIG4:VIG6 UYK4:UYK6 UOO4:UOO6 UES4:UES6 TUW4:TUW6 TLA4:TLA6 TBE4:TBE6 SRI4:SRI6 SHM4:SHM6 RXQ4:RXQ6 RNU4:RNU6 RDY4:RDY6 QUC4:QUC6 QKG4:QKG6 QAK4:QAK6 PQO4:PQO6 PGS4:PGS6 OWW4:OWW6 ONA4:ONA6 ODE4:ODE6 NTI4:NTI6 NJM4:NJM6 MZQ4:MZQ6 MPU4:MPU6 MFY4:MFY6 LWC4:LWC6 LMG4:LMG6 LCK4:LCK6 KSO4:KSO6 KIS4:KIS6 JYW4:JYW6 JPA4:JPA6 JFE4:JFE6 IVI4:IVI6 ILM4:ILM6 IBQ4:IBQ6 HRU4:HRU6 HHY4:HHY6 GYC4:GYC6 GOG4:GOG6 GEK4:GEK6 FUO4:FUO6 FKS4:FKS6 FAW4:FAW6 ERA4:ERA6 EHE4:EHE6 DXI4:DXI6 DNM4:DNM6 DDQ4:DDQ6 CTU4:CTU6 CJY4:CJY6 CAC4:CAC6 BQG4:BQG6 BGK4:BGK6 AWO4:AWO6 AMS4:AMS6 ACW4:ACW6 TA4:TA6 JE4:JE6 WVQ4:WVQ6 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4:WVN6 WLR4:WLR6 WBV4:WBV6 VRZ4:VRZ6 VID4:VID6 UYH4:UYH6 UOL4:UOL6 UEP4:UEP6 TUT4:TUT6 TKX4:TKX6 TBB4:TBB6 SRF4:SRF6 SHJ4:SHJ6 RXN4:RXN6 RNR4:RNR6 RDV4:RDV6 QTZ4:QTZ6 QKD4:QKD6 QAH4:QAH6 PQL4:PQL6 PGP4:PGP6 OWT4:OWT6 OMX4:OMX6 ODB4:ODB6 NTF4:NTF6 NJJ4:NJJ6 MZN4:MZN6 MPR4:MPR6 MFV4:MFV6 LVZ4:LVZ6 LMD4:LMD6 LCH4:LCH6 KSL4:KSL6 KIP4:KIP6 JYT4:JYT6 JOX4:JOX6 JFB4:JFB6 IVF4:IVF6 ILJ4:ILJ6 IBN4:IBN6 HRR4:HRR6 HHV4:HHV6 GXZ4:GXZ6 GOD4:GOD6 GEH4:GEH6 FUL4:FUL6 FKP4:FKP6 FAT4:FAT6 EQX4:EQX6 EHB4:EHB6 DXF4:DXF6 DNJ4:DNJ6 DDN4:DDN6 CTR4:CTR6 CJV4:CJV6 BZZ4:BZZ6 BQD4:BQD6 BGH4:BGH6 AWL4:AWL6 AMP4:AMP6 ACT4:ACT6 SX4:SX6 JB4:JB6 F4:F16">
@@ -6347,6 +6961,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6355,57 +6974,57 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B4" sqref="B4:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6446,52 +7065,112 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="90" customFormat="1" ht="15">
       <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="D4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="90" customFormat="1" ht="195">
       <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
+      <c r="B5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="M5" s="89"/>
     </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="90" customFormat="1" ht="30">
       <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" s="89"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6506,7 +7185,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6521,7 +7200,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6536,7 +7215,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6551,7 +7230,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6566,7 +7245,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6581,7 +7260,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6596,7 +7275,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6611,7 +7290,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6626,7 +7305,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6650,7 +7329,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 TA4:TA6 ACW4:ACW6 AMS4:AMS6 AWO4:AWO6 BGK4:BGK6 BQG4:BQG6 CAC4:CAC6 CJY4:CJY6 CTU4:CTU6 DDQ4:DDQ6 DNM4:DNM6 DXI4:DXI6 EHE4:EHE6 ERA4:ERA6 FAW4:FAW6 FKS4:FKS6 FUO4:FUO6 GEK4:GEK6 GOG4:GOG6 GYC4:GYC6 HHY4:HHY6 HRU4:HRU6 IBQ4:IBQ6 ILM4:ILM6 IVI4:IVI6 JFE4:JFE6 JPA4:JPA6 JYW4:JYW6 KIS4:KIS6 KSO4:KSO6 LCK4:LCK6 LMG4:LMG6 LWC4:LWC6 MFY4:MFY6 MPU4:MPU6 MZQ4:MZQ6 NJM4:NJM6 NTI4:NTI6 ODE4:ODE6 ONA4:ONA6 OWW4:OWW6 PGS4:PGS6 PQO4:PQO6 QAK4:QAK6 QKG4:QKG6 QUC4:QUC6 RDY4:RDY6 RNU4:RNU6 RXQ4:RXQ6 SHM4:SHM6 SRI4:SRI6 TBE4:TBE6 TLA4:TLA6 TUW4:TUW6 UES4:UES6 UOO4:UOO6 UYK4:UYK6 VIG4:VIG6 VSC4:VSC6 WBY4:WBY6 WLU4:WLU6 WVQ4:WVQ6 JE4:JE6 I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 TA4:TA6 ACW4:ACW6 AMS4:AMS6 AWO4:AWO6 BGK4:BGK6 BQG4:BQG6 CAC4:CAC6 CJY4:CJY6 CTU4:CTU6 DDQ4:DDQ6 DNM4:DNM6 DXI4:DXI6 EHE4:EHE6 ERA4:ERA6 FAW4:FAW6 FKS4:FKS6 FUO4:FUO6 GEK4:GEK6 GOG4:GOG6 GYC4:GYC6 HHY4:HHY6 HRU4:HRU6 IBQ4:IBQ6 ILM4:ILM6 IVI4:IVI6 JFE4:JFE6 JPA4:JPA6 JYW4:JYW6 KIS4:KIS6 KSO4:KSO6 LCK4:LCK6 LMG4:LMG6 LWC4:LWC6 MFY4:MFY6 MPU4:MPU6 MZQ4:MZQ6 NJM4:NJM6 NTI4:NTI6 ODE4:ODE6 ONA4:ONA6 OWW4:OWW6 PGS4:PGS6 PQO4:PQO6 QAK4:QAK6 QKG4:QKG6 QUC4:QUC6 RDY4:RDY6 RNU4:RNU6 RXQ4:RXQ6 SHM4:SHM6 SRI4:SRI6 TBE4:TBE6 TLA4:TLA6 TUW4:TUW6 UES4:UES6 UOO4:UOO6 UYK4:UYK6 VIG4:VIG6 VSC4:VSC6 WBY4:WBY6 WLU4:WLU6 WVQ4:WVQ6 JE4:JE6 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLR4:WLR6 WBV4:WBV6 VRZ4:VRZ6 VID4:VID6 UYH4:UYH6 UOL4:UOL6 UEP4:UEP6 TUT4:TUT6 TKX4:TKX6 TBB4:TBB6 SRF4:SRF6 SHJ4:SHJ6 RXN4:RXN6 RNR4:RNR6 RDV4:RDV6 QTZ4:QTZ6 QKD4:QKD6 QAH4:QAH6 PQL4:PQL6 PGP4:PGP6 OWT4:OWT6 OMX4:OMX6 ODB4:ODB6 NTF4:NTF6 NJJ4:NJJ6 MZN4:MZN6 MPR4:MPR6 MFV4:MFV6 LVZ4:LVZ6 LMD4:LMD6 LCH4:LCH6 KSL4:KSL6 KIP4:KIP6 JYT4:JYT6 JOX4:JOX6 JFB4:JFB6 IVF4:IVF6 ILJ4:ILJ6 IBN4:IBN6 HRR4:HRR6 HHV4:HHV6 GXZ4:GXZ6 GOD4:GOD6 GEH4:GEH6 FUL4:FUL6 FKP4:FKP6 FAT4:FAT6 EQX4:EQX6 EHB4:EHB6 DXF4:DXF6 DNJ4:DNJ6 DDN4:DDN6 CTR4:CTR6 CJV4:CJV6 BZZ4:BZZ6 BQD4:BQD6 BGH4:BGH6 AWL4:AWL6 AMP4:AMP6 ACT4:ACT6 SX4:SX6 JB4:JB6 WVN4:WVN6 F4:F16">
@@ -6661,6 +7340,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6669,59 +7353,59 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B4" sqref="B4:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6762,52 +7446,112 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="90" customFormat="1" ht="30">
       <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="D4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="90" customFormat="1" ht="195">
       <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="M5" s="89"/>
     </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="90" customFormat="1" ht="30">
       <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" s="89"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6822,7 +7566,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6837,7 +7581,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6852,7 +7596,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6867,7 +7611,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6882,7 +7626,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6897,7 +7641,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6912,7 +7656,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6927,7 +7671,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6942,7 +7686,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6969,7 +7713,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 TA4:TA6 ACW4:ACW6 AMS4:AMS6 AWO4:AWO6 BGK4:BGK6 BQG4:BQG6 CAC4:CAC6 CJY4:CJY6 CTU4:CTU6 DDQ4:DDQ6 DNM4:DNM6 DXI4:DXI6 EHE4:EHE6 ERA4:ERA6 FAW4:FAW6 FKS4:FKS6 FUO4:FUO6 GEK4:GEK6 GOG4:GOG6 GYC4:GYC6 HHY4:HHY6 HRU4:HRU6 IBQ4:IBQ6 ILM4:ILM6 IVI4:IVI6 JFE4:JFE6 JPA4:JPA6 JYW4:JYW6 KIS4:KIS6 KSO4:KSO6 LCK4:LCK6 LMG4:LMG6 LWC4:LWC6 MFY4:MFY6 MPU4:MPU6 MZQ4:MZQ6 NJM4:NJM6 NTI4:NTI6 ODE4:ODE6 ONA4:ONA6 OWW4:OWW6 PGS4:PGS6 PQO4:PQO6 QAK4:QAK6 QKG4:QKG6 QUC4:QUC6 RDY4:RDY6 RNU4:RNU6 RXQ4:RXQ6 SHM4:SHM6 SRI4:SRI6 TBE4:TBE6 TLA4:TLA6 TUW4:TUW6 UES4:UES6 UOO4:UOO6 UYK4:UYK6 VIG4:VIG6 VSC4:VSC6 WBY4:WBY6 WLU4:WLU6 WVQ4:WVQ6 JE4:JE6 I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 TA4:TA6 ACW4:ACW6 AMS4:AMS6 AWO4:AWO6 BGK4:BGK6 BQG4:BQG6 CAC4:CAC6 CJY4:CJY6 CTU4:CTU6 DDQ4:DDQ6 DNM4:DNM6 DXI4:DXI6 EHE4:EHE6 ERA4:ERA6 FAW4:FAW6 FKS4:FKS6 FUO4:FUO6 GEK4:GEK6 GOG4:GOG6 GYC4:GYC6 HHY4:HHY6 HRU4:HRU6 IBQ4:IBQ6 ILM4:ILM6 IVI4:IVI6 JFE4:JFE6 JPA4:JPA6 JYW4:JYW6 KIS4:KIS6 KSO4:KSO6 LCK4:LCK6 LMG4:LMG6 LWC4:LWC6 MFY4:MFY6 MPU4:MPU6 MZQ4:MZQ6 NJM4:NJM6 NTI4:NTI6 ODE4:ODE6 ONA4:ONA6 OWW4:OWW6 PGS4:PGS6 PQO4:PQO6 QAK4:QAK6 QKG4:QKG6 QUC4:QUC6 RDY4:RDY6 RNU4:RNU6 RXQ4:RXQ6 SHM4:SHM6 SRI4:SRI6 TBE4:TBE6 TLA4:TLA6 TUW4:TUW6 UES4:UES6 UOO4:UOO6 UYK4:UYK6 VIG4:VIG6 VSC4:VSC6 WBY4:WBY6 WLU4:WLU6 WVQ4:WVQ6 JE4:JE6 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
@@ -6977,6 +7721,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6988,15 +7737,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7213,5 +7962,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>